--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -34,9 +34,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>tharasumesh</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>No matching records found</t>
+  </si>
+  <si>
+    <t>tharasree</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,36 +490,37 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="thara123@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="grace@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -540,18 +541,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -579,42 +580,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -622,20 +623,20 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -643,10 +644,10 @@
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -672,15 +673,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -688,10 +689,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -721,26 +722,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -764,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
